--- a/biology/Zoologie/Eurybia_(papillon)/Eurybia_(papillon).xlsx
+++ b/biology/Zoologie/Eurybia_(papillon)/Eurybia_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurybia est un genre d'insectes lépidoptères de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Eurybia leur a été donné par Johann Karl Wilhelm Illiger en 1807.
 </t>
@@ -542,17 +556,19 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eurybia albiseriata Weymer, 1890; présent en Bolivie, au Brésil et au Pérou.
 Eurybia caerulescens Druce, 1904;présent au Pérou.
-Eurybia carolina Godart, [1824]; présent au Brésil.
+Eurybia carolina Godart, ; présent au Brésil.
 Eurybia cyclopia Stichel, 1910; présent en Guyane, en  Équateur au Costa Rica et à Panama.
 Eurybia dardus (Fabricius, 1787); présent en Guyane, en Guyana, au Surinam, en Colombie, en  Équateur et au Pérou.
 Eurybia donna C. &amp; R. Felder, 1862; présent en Colombie.
 Eurybia elvina Stichel, 1910; présent au Mexique, au Costa Rica, à Panama, en  Équateur, en Colombie, au Brésil et au Pérou.
 Eurybia franciscana C. &amp; R. Felder, 1862; présent au Surinam et au Pérou.
-Eurybia halimede (Hübner, [1807]); en Amérique Centrale, en Bolivie et au Brésil
+Eurybia halimede (Hübner, ); en Amérique Centrale, en Bolivie et au Brésil
 Eurybia jemima Hewitson, 1869; présent en Bolivie, en  Équateur et au Pérou.
 Eurybia juturna C. &amp; R. Felder, 1865; présent en Guyane, en Guyana, au Surinam, en Bolivie, en  Équateur et au Pérou.
 Eurybia latifasciata (Hewitson, 1869); présent en Colombie, en  Équateur et au Pérou.
@@ -564,7 +580,7 @@
 Eurybia pergaea (Geyer, 1832); présent au Brésil.
 Eurybia rubeolata Stichel, 1910; présent en Bolivie, au Brésil et au Pérou.
 Eurybia silaceana Stichel, 1924; présent en Colombie.
-Eurybia unxia Godman &amp; Salvin, [1885]; présent au Nicaragua, au Costa Rica et à Panama.</t>
+Eurybia unxia Godman &amp; Salvin, ; présent au Nicaragua, au Costa Rica et à Panama.</t>
         </is>
       </c>
     </row>
